--- a/Manuelno testiranje/Pets Meet/Bug reports.xlsx
+++ b/Manuelno testiranje/Pets Meet/Bug reports.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanja\Desktop\Tanja Ćerimović-QA Portfolio\Bug Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Portfolio-Tanja Ćerimović\Manuelno testiranje\Pets Meet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
   <si>
     <t>Category</t>
   </si>
@@ -121,13 +121,7 @@
 </t>
   </si>
   <si>
-    <t>No new message notification</t>
-  </si>
-  <si>
     <t>Another user sent us a private message</t>
-  </si>
-  <si>
-    <t>Medium/Low</t>
   </si>
   <si>
     <t>Medium</t>
@@ -174,6 +168,9 @@
   <si>
     <t>Form is not submited.
 Error message displayed under the field Email:Email already exist</t>
+  </si>
+  <si>
+    <t>No new message notification after another user sends direct message.</t>
   </si>
 </sst>
 </file>
@@ -263,14 +260,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +643,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -657,13 +654,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -672,7 +669,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -699,18 +696,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>36</v>
+      <c r="C8" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
@@ -719,16 +716,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
+      <c r="C10" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -739,7 +736,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -795,7 +792,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -806,7 +803,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -815,7 +812,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -842,18 +839,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>37</v>
+      <c r="C7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -862,16 +859,16 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>39</v>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -882,7 +879,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
@@ -917,7 +914,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -939,7 +936,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -950,7 +947,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -959,7 +956,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -968,7 +965,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -986,18 +983,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>38</v>
+      <c r="C7" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1003,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1015,7 +1012,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1026,11 +1023,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="245.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -1058,7 +1057,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1079,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1091,16 +1090,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1108,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1127,61 +1126,61 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>40</v>
+      <c r="C7" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>41</v>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>42</v>
+      <c r="C10" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="270" customHeight="1" x14ac:dyDescent="0.35">
